--- a/MainTop/07.10.2024/макс месяц с 07.09.2024 по 07.10.2024/печать.xlsx
+++ b/MainTop/07.10.2024/макс месяц с 07.09.2024 по 07.10.2024/печать.xlsx
@@ -544,7 +544,7 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N107" activeCellId="0" sqref="N107"/>
     </sheetView>
   </sheetViews>
